--- a/car.xlsx
+++ b/car.xlsx
@@ -1,89 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4003D227-008B-44BB-AA0E-9437ABC6117F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="96" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>work_day</t>
+  </si>
+  <si>
+    <t>last_point</t>
+  </si>
+  <si>
+    <t>total_distance</t>
+  </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,6,3</t>
   </si>
   <si>
     <t>A_DF3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -95,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,26 +89,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -137,44 +133,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -201,15 +197,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -236,7 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -248,203 +242,238 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/car.xlsx
+++ b/car.xlsx
@@ -1,66 +1,224 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E1874-173E-4EE4-8F19-DF8612499DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-2244" yWindow="1908" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
     <t>work_day</t>
   </si>
   <si>
+    <t>total_distance</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>A_DF3</t>
+  </si>
+  <si>
+    <t>A_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>A_5</t>
+  </si>
+  <si>
+    <t>A_6</t>
+  </si>
+  <si>
+    <t>A_7</t>
+  </si>
+  <si>
+    <t>A_8</t>
+  </si>
+  <si>
+    <t>A_9</t>
+  </si>
+  <si>
+    <t>A_10</t>
+  </si>
+  <si>
+    <t>A_11</t>
+  </si>
+  <si>
+    <t>A_12</t>
+  </si>
+  <si>
+    <t>A_13</t>
+  </si>
+  <si>
+    <t>A_14</t>
+  </si>
+  <si>
+    <t>A_15</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_3</t>
+  </si>
+  <si>
+    <t>B_4</t>
+  </si>
+  <si>
+    <t>B_5</t>
+  </si>
+  <si>
+    <t>B_6</t>
+  </si>
+  <si>
+    <t>B_7</t>
+  </si>
+  <si>
+    <t>B_8</t>
+  </si>
+  <si>
+    <t>B_9</t>
+  </si>
+  <si>
+    <t>B_10</t>
+  </si>
+  <si>
+    <t>B_11</t>
+  </si>
+  <si>
+    <t>B_12</t>
+  </si>
+  <si>
+    <t>B_13</t>
+  </si>
+  <si>
+    <t>B_14</t>
+  </si>
+  <si>
+    <t>B_15</t>
+  </si>
+  <si>
+    <t>B_16</t>
+  </si>
+  <si>
+    <t>B_17</t>
+  </si>
+  <si>
+    <t>B_18</t>
+  </si>
+  <si>
+    <t>C_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_3</t>
+  </si>
+  <si>
+    <t>C_4</t>
+  </si>
+  <si>
+    <t>C_5</t>
+  </si>
+  <si>
+    <t>C_6</t>
+  </si>
+  <si>
+    <t>C_7</t>
+  </si>
+  <si>
+    <t>C_8</t>
+  </si>
+  <si>
+    <t>C_9</t>
+  </si>
+  <si>
+    <t>C_10</t>
+  </si>
+  <si>
+    <t>C_11</t>
+  </si>
+  <si>
+    <t>C_12</t>
+  </si>
+  <si>
+    <t>C_13</t>
+  </si>
+  <si>
+    <t>C_14</t>
+  </si>
+  <si>
+    <t>C_15</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_DF2</t>
+  </si>
+  <si>
+    <t>B_DF2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>last_point</t>
-  </si>
-  <si>
-    <t>total_distance</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>2,5,6,3</t>
-  </si>
-  <si>
-    <t>A_DF3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,8 +226,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -81,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,26 +269,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +384,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +436,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,16 +629,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -424,56 +649,687 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>